--- a/biology/Botanique/Le_Feu_de_forêt/Le_Feu_de_forêt.xlsx
+++ b/biology/Botanique/Le_Feu_de_forêt/Le_Feu_de_forêt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Feu_de_for%C3%AAt</t>
+          <t>Le_Feu_de_forêt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Feu de forêt ou L'Incendie de forêt est une peinture du peintre de la Renaissance italienne Piero di Cosimo. Elle est conservée à l'Ashmolean Museum d'Oxford. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Feu_de_for%C3%AAt</t>
+          <t>Le_Feu_de_forêt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La peinture représente une variété d'animaux apeurés tentant d'échapper à un incendie de forêt. La peinture montre une importante activité, au centre de laquelle le feu qui faisait rage[1]. Il s'agit de l'une des premières peintures de paysages de la Renaissance, il combine de vrais animaux et des animaux imaginaires. Il a été inspiré par le Livre 5 de Lucrèce Sur la Nature des Choses[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La peinture représente une variété d'animaux apeurés tentant d'échapper à un incendie de forêt. La peinture montre une importante activité, au centre de laquelle le feu qui faisait rage. Il s'agit de l'une des premières peintures de paysages de la Renaissance, il combine de vrais animaux et des animaux imaginaires. Il a été inspiré par le Livre 5 de Lucrèce Sur la Nature des Choses.
 </t>
         </is>
       </c>
